--- a/biology/Médecine/Œdème_pulmonaire_lésionnel_post-transfusionnel/Œdème_pulmonaire_lésionnel_post-transfusionnel.xlsx
+++ b/biology/Médecine/Œdème_pulmonaire_lésionnel_post-transfusionnel/Œdème_pulmonaire_lésionnel_post-transfusionnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_pulmonaire_l%C3%A9sionnel_post-transfusionnel</t>
+          <t>Œdème_pulmonaire_lésionnel_post-transfusionnel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œdème pulmonaire lésionnel post-transfusionnel ou syndrome de détresse respiratoire aiguë post-transfusionnel (transfusion related acute lung injury, TRALI) est une atteinte pulmonaire aigüe transfusionnelle.
 Il s'agit d'un œdème lésionnel dû à l'activation de leucocytes accumulés pour diverses raisons (il s'agit en général de grosses pathologies ou de traitements importants : chimiothérapies, transfusions massives, circulation extra-corporelle (CEC), etc.) dans les capillaires pulmonaires. Cette activation résulte soit de la présence de lipides activateurs dans l'unité transfusée (phosphatidylcholines en  particulier) soit d'un conflit immunologique entre des anticorps anti-HLA ou anti-granulocytes (anti-HNA, human neutrophil antigen) apportés par le sang ou le plasma transfusé, et les antigènes présents sur les globules blancs du receveur. C'est considéré comme l'un des principaux facteurs déclenchants.
